--- a/Data_Prep/AirBnB-Booking-Twitter_combined/tweets_cleaned.xlsx
+++ b/Data_Prep/AirBnB-Booking-Twitter_combined/tweets_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AF382-2921-4DEF-A611-6712B1072086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443056D-55E0-43A0-BFEF-2CA4BE2BCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{076154BD-63EA-4C6B-BE29-0FF13C5412EB}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>replies</t>
   </si>
   <si>
-    <t>Barcalona</t>
-  </si>
-  <si>
     <t>Bruessel</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Bologna</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
   </si>
 </sst>
 </file>
@@ -162,6 +162,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,7 +525,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -571,7 +572,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -611,7 +612,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -631,7 +632,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -811,7 +812,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
